--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value994.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value994.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.529721533586535</v>
+        <v>1.757752656936646</v>
       </c>
       <c r="B1">
-        <v>3.984277351348623</v>
+        <v>2.063446521759033</v>
       </c>
       <c r="C1">
-        <v>4.535536984770027</v>
+        <v>2.189067363739014</v>
       </c>
       <c r="D1">
-        <v>1.315502980724577</v>
+        <v>2.409654140472412</v>
       </c>
       <c r="E1">
-        <v>0.7638525940841691</v>
+        <v>3.05979585647583</v>
       </c>
     </row>
   </sheetData>
